--- a/информация/meeting schedule.xlsx
+++ b/информация/meeting schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\OPI_12\информация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B27E1F-0A34-44E3-A594-ED5EE4C6A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F8B961-BC0A-4B4C-8C00-EC00534DBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +90,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -111,6 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,7 +401,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +478,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -491,7 +498,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -511,7 +518,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -531,7 +538,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -551,7 +558,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>

--- a/информация/meeting schedule.xlsx
+++ b/информация/meeting schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\OPI_12\информация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F8B961-BC0A-4B4C-8C00-EC00534DBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5BEF3-C443-4675-BD71-68E7E7C7D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
